--- a/data/trans_camb/P38A-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P38A-Provincia-trans_camb.xlsx
@@ -612,7 +612,7 @@
         <v>-13.07026688567644</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>8.477758496130095</v>
+        <v>8.477758496130116</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>-2.46179238069163</v>
@@ -624,7 +624,7 @@
         <v>-7.79715052407266</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>9.371676930469663</v>
+        <v>9.371676930469675</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-19.8961149345582</v>
+        <v>-20.02783231450916</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>3.09059021509383</v>
+        <v>2.873721682930441</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-8.019766710277182</v>
+        <v>-8.420691162911911</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>6.310346351349959</v>
+        <v>6.42924355669602</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-12.02774026360408</v>
+        <v>-12.45347592990652</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.405602691963305</v>
+        <v>5.929354042532339</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.382901602856929</v>
+        <v>-6.120010158957041</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>13.28971909007048</v>
+        <v>13.25146989945013</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.354374275016879</v>
+        <v>3.712907034583143</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>15.34748553555974</v>
+        <v>15.31742720328897</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>-3.384635305790679</v>
+        <v>-3.421979845788313</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>13.09454572584081</v>
+        <v>12.85628751412464</v>
       </c>
     </row>
     <row r="7">
@@ -690,7 +690,7 @@
         <v>-0.1499557157014609</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>0.09726567590020065</v>
+        <v>0.0972656759002009</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.0280958308175089</v>
@@ -702,7 +702,7 @@
         <v>-0.08922185197694077</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1072389675285282</v>
+        <v>0.1072389675285284</v>
       </c>
     </row>
     <row r="8">
@@ -713,22 +713,22 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.2216054289731049</v>
+        <v>-0.2259559273938918</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>0.03438894163898311</v>
+        <v>0.03289037340173404</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.09032159786040209</v>
+        <v>-0.0941735619718365</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.06917483412743247</v>
+        <v>0.07081171311900081</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.1362150944162842</v>
+        <v>-0.1400133584677369</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.07192395825156113</v>
+        <v>0.06680137072702685</v>
       </c>
     </row>
     <row r="9">
@@ -739,22 +739,22 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.0753187398874227</v>
+        <v>-0.07271031413581067</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.1597086693502645</v>
+        <v>0.1593488944177942</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.03907961823852416</v>
+        <v>0.04280521722018549</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.1856114841641327</v>
+        <v>0.1843746864662872</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>-0.04005592642835225</v>
+        <v>-0.0401092158965385</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1553557464111391</v>
+        <v>0.151412869402724</v>
       </c>
     </row>
     <row r="10">
@@ -795,22 +795,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-4.685111804925738</v>
+        <v>-4.783351156050453</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-5.025114837465762</v>
+        <v>-5.023609125515111</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.553024073414081</v>
+        <v>-2.26056522579745</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-5.179890926480967</v>
+        <v>-5.178153332823951</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-2.145450521280056</v>
+        <v>-2.078096754642523</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-4.056477843050177</v>
+        <v>-3.587058811393334</v>
       </c>
     </row>
     <row r="12">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.34553032835139</v>
+        <v>4.634866100094993</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.473119933672923</v>
+        <v>5.693313226552202</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.927868165979453</v>
+        <v>3.981746676832593</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.434267818510535</v>
+        <v>1.932344467007252</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.127852510844774</v>
+        <v>3.164390641564099</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.753365504213223</v>
+        <v>3.06888013990135</v>
       </c>
     </row>
     <row r="13">
@@ -873,22 +873,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.05293700977980834</v>
+        <v>-0.05334164425395855</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.05767897585879907</v>
+        <v>-0.05734190095056073</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.02712387339485687</v>
+        <v>-0.02420373402181447</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.05440495948559205</v>
+        <v>-0.05491773782102875</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.02352724726834975</v>
+        <v>-0.02280674963787882</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.04458304248106006</v>
+        <v>-0.03948760653960087</v>
       </c>
     </row>
     <row r="15">
@@ -899,22 +899,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.05050735530165311</v>
+        <v>0.05473240429045709</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.06469968254886628</v>
+        <v>0.06724593012208595</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.04406222898181209</v>
+        <v>0.0443327957138543</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.02704961196457715</v>
+        <v>0.02143319813271249</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03563093859997512</v>
+        <v>0.03572692307904986</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.03130874297678599</v>
+        <v>0.0345503143991353</v>
       </c>
     </row>
     <row r="16">
@@ -938,13 +938,13 @@
         <v>0.6686730975954736</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>4.602267895411128</v>
+        <v>4.602267895411116</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1.103915241301867</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>4.672346810682393</v>
+        <v>4.67234681068237</v>
       </c>
     </row>
     <row r="17">
@@ -955,22 +955,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.846000719157856</v>
+        <v>-2.817802658841742</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-0.4887105114183072</v>
+        <v>0.1320642800511239</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-3.300457191192544</v>
+        <v>-3.024805837359334</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9207726668077093</v>
+        <v>1.580194132749839</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.999409927124867</v>
+        <v>-1.869069483126461</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.753958961984337</v>
+        <v>2.012983632123196</v>
       </c>
     </row>
     <row r="18">
@@ -981,22 +981,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>6.071559608858109</v>
+        <v>6.369567289101353</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.156022589982939</v>
+        <v>9.575749451729198</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>5.062935394734444</v>
+        <v>4.616433444985539</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>7.96902799751495</v>
+        <v>8.435105535399282</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.106649534193226</v>
+        <v>4.52006393969728</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>7.665158237020998</v>
+        <v>7.709190164062319</v>
       </c>
     </row>
     <row r="19">
@@ -1016,13 +1016,13 @@
         <v>0.007236722419619158</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>0.04980809812684266</v>
+        <v>0.04980809812684254</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01219891583636359</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05163219364069845</v>
+        <v>0.0516321936406982</v>
       </c>
     </row>
     <row r="20">
@@ -1033,22 +1033,22 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.03107395286847811</v>
+        <v>-0.03156590695898318</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.005295439122039685</v>
+        <v>0.002991750263605632</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.03417537027347882</v>
+        <v>-0.03236322852798473</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>0.009052008906878293</v>
+        <v>0.01687675895184186</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.02195741366058735</v>
+        <v>-0.02041820154648952</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01920738873223372</v>
+        <v>0.02214862871939597</v>
       </c>
     </row>
     <row r="21">
@@ -1059,22 +1059,22 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.07125886619587531</v>
+        <v>0.07453252328100946</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.1072187415173717</v>
+        <v>0.113655039919368</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.05689735701425565</v>
+        <v>0.05099910097928694</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.08862690423087936</v>
+        <v>0.09490767379178541</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.04652345557092598</v>
+        <v>0.05107345260618858</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.08603215278639476</v>
+        <v>0.08636823884333035</v>
       </c>
     </row>
     <row r="22">
@@ -1098,13 +1098,13 @@
         <v>4.401945650334149</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4.563758094599979</v>
+        <v>4.56375809459999</v>
       </c>
       <c r="G22" s="5" t="n">
         <v>8.020326931905487</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>5.922499934007563</v>
+        <v>5.92249993400753</v>
       </c>
     </row>
     <row r="23">
@@ -1115,22 +1115,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>6.622646793466902</v>
+        <v>7.123913201736077</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.309789581184206</v>
+        <v>-0.8924328296499109</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.3507207066361908</v>
+        <v>0.275235636090934</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-0.0586114714053704</v>
+        <v>-0.2479383818540981</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>4.885151595462625</v>
+        <v>5.031092957555492</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.478795268443023</v>
+        <v>1.58957060155299</v>
       </c>
     </row>
     <row r="24">
@@ -1141,22 +1141,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>17.25280707233988</v>
+        <v>16.95644247363661</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>13.95977635313798</v>
+        <v>13.39590485115685</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>8.377462062294198</v>
+        <v>8.605338713147273</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>8.482982777513971</v>
+        <v>8.761203174832202</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>11.58974913365327</v>
+        <v>11.46383158139209</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>9.680199662775097</v>
+        <v>9.586858177763053</v>
       </c>
     </row>
     <row r="25">
@@ -1176,13 +1176,13 @@
         <v>0.04963493317173345</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.05145947861038049</v>
+        <v>0.05145947861038061</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.09477140345401751</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.06998263729990767</v>
+        <v>0.06998263729990728</v>
       </c>
     </row>
     <row r="26">
@@ -1193,22 +1193,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.08032020434486033</v>
+        <v>0.08578562928799859</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.01087625504398596</v>
+        <v>-0.01023728011769328</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.003878497748253177</v>
+        <v>0.003027880922804657</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.0009197068867179911</v>
+        <v>-0.002036764914391112</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.05661395295604733</v>
+        <v>0.05778741422021386</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.01711262217844351</v>
+        <v>0.01832374989906443</v>
       </c>
     </row>
     <row r="27">
@@ -1219,22 +1219,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.2252521763631037</v>
+        <v>0.2223311281731657</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1801581043693495</v>
+        <v>0.1736031065703644</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.09714788214336501</v>
+        <v>0.09882871332993978</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.09805859288051594</v>
+        <v>0.1022612921016667</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.1405314046344265</v>
+        <v>0.1387706553622669</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.1176413372902681</v>
+        <v>0.1157901913431564</v>
       </c>
     </row>
     <row r="28">
@@ -1258,7 +1258,7 @@
         <v>-4.295901789496515</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>-6.396309869949979</v>
+        <v>-6.39630986994999</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>-6.459791217692457</v>
@@ -1275,22 +1275,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-16.56858997450465</v>
+        <v>-15.92477850796872</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-14.55178682475147</v>
+        <v>-15.14307166268776</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-10.19603632682681</v>
+        <v>-9.633657785960203</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>-11.72514240476155</v>
+        <v>-11.91653025263877</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-10.59546239975251</v>
+        <v>-10.99204736932066</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>-11.20990067917329</v>
+        <v>-11.10459055408454</v>
       </c>
     </row>
     <row r="30">
@@ -1301,22 +1301,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>-1.078020782228387</v>
+        <v>-0.8181671493792614</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>-0.3426369168538116</v>
+        <v>-0.02535979170927935</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.8743956240067808</v>
+        <v>0.5659296742472802</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>-0.9393940327000669</v>
+        <v>-0.8978639697361765</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>-1.848596652309346</v>
+        <v>-2.00357905887761</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>-2.038792841410024</v>
+        <v>-2.332297361238902</v>
       </c>
     </row>
     <row r="31">
@@ -1336,7 +1336,7 @@
         <v>-0.04604920467104062</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>-0.06856417971679116</v>
+        <v>-0.06856417971679127</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>-0.07174207579735829</v>
@@ -1353,22 +1353,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.1856358482820413</v>
+        <v>-0.176208855227308</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1614597857071513</v>
+        <v>-0.1693816454127514</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1068725811531277</v>
+        <v>-0.1017299801400381</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>-0.1228387970938905</v>
+        <v>-0.1253622296010436</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1145966031035209</v>
+        <v>-0.1201845516301051</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>-0.1231051269226179</v>
+        <v>-0.1224913911003023</v>
       </c>
     </row>
     <row r="33">
@@ -1379,22 +1379,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>-0.0164654405981297</v>
+        <v>-0.00914813616069996</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>-0.003478693179781185</v>
+        <v>-0.003864630700495713</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>0.009083216221711789</v>
+        <v>0.006336296132229064</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>-0.01052894647508774</v>
+        <v>-0.01041434973357737</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>-0.02064446280798865</v>
+        <v>-0.02262259801903438</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>-0.02433761470239221</v>
+        <v>-0.02694752226295172</v>
       </c>
     </row>
     <row r="34">
@@ -1418,7 +1418,7 @@
         <v>-3.214262391957179</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>1.980001632512052</v>
+        <v>1.980001632512018</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-4.607533246747497</v>
@@ -1435,22 +1435,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-12.09013649840422</v>
+        <v>-11.77500857336427</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.838533170930181</v>
+        <v>-2.60064774399275</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-7.564137982798911</v>
+        <v>-7.454012128586246</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-1.436862102127723</v>
+        <v>-1.394615629690084</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.037691748095579</v>
+        <v>-8.144565132261837</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-0.8688894776193269</v>
+        <v>-1.2552870594606</v>
       </c>
     </row>
     <row r="36">
@@ -1461,22 +1461,22 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>-0.694774946816588</v>
+        <v>-0.2335931285729073</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>7.013466299603454</v>
+        <v>6.989105878302674</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>0.9225350141222949</v>
+        <v>0.9809901397036561</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.418663097786331</v>
+        <v>5.317702440676836</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>-1.262525679487779</v>
+        <v>-1.074531290548829</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.767123225452773</v>
+        <v>4.855414508343534</v>
       </c>
     </row>
     <row r="37">
@@ -1496,7 +1496,7 @@
         <v>-0.03380049994892011</v>
       </c>
       <c r="F37" s="6" t="n">
-        <v>0.0208212762113159</v>
+        <v>0.02082127621131554</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>-0.04944379690570092</v>
@@ -1513,22 +1513,22 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>-0.1300783600563008</v>
+        <v>-0.1260615236780421</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.03050324504186808</v>
+        <v>-0.02672335544679887</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>-0.07771922551948977</v>
+        <v>-0.07718854725588067</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.01487608504100974</v>
+        <v>-0.01431496327681982</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.0854512434553482</v>
+        <v>-0.08648551361614414</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.009111311936008747</v>
+        <v>-0.0132259761568776</v>
       </c>
     </row>
     <row r="39">
@@ -1539,22 +1539,22 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>-0.007850364313406591</v>
+        <v>-0.002878099162812855</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.07720938442161114</v>
+        <v>0.08081070857875061</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>0.009823032530412586</v>
+        <v>0.0101417378719649</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.05858343801498542</v>
+        <v>0.05735897107849199</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>-0.01373658249071925</v>
+        <v>-0.01188763141313706</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.05203302439147587</v>
+        <v>0.05353783821853409</v>
       </c>
     </row>
     <row r="40">
@@ -1595,22 +1595,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-21.82394027962162</v>
+        <v>-21.22489691636503</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-9.526267038993288</v>
+        <v>-9.640370627581472</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-17.21676451792656</v>
+        <v>-17.32036131918342</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>-5.470958373038654</v>
+        <v>-5.172681373957526</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-18.16457174673967</v>
+        <v>-18.13897797475351</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>-5.981437721139225</v>
+        <v>-5.993948582923192</v>
       </c>
     </row>
     <row r="42">
@@ -1621,22 +1621,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>-12.87752983193581</v>
+        <v>-12.44927716825551</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>-0.4943415938077987</v>
+        <v>-0.9944911103220411</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>-10.00100139186792</v>
+        <v>-10.10334021373585</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>0.5492824721239609</v>
+        <v>0.6210037961243444</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>-12.42214447371736</v>
+        <v>-12.42128292563679</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>-1.032654332321698</v>
+        <v>-0.913621516683685</v>
       </c>
     </row>
     <row r="43">
@@ -1673,22 +1673,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.2413845981764501</v>
+        <v>-0.2343695500562891</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.1050102143944715</v>
+        <v>-0.1056418441384702</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.1834248927945257</v>
+        <v>-0.1842274732785462</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>-0.05792859737831532</v>
+        <v>-0.05466659000723054</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.195952370488723</v>
+        <v>-0.1962688195898958</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.06466577398805964</v>
+        <v>-0.06499528211123148</v>
       </c>
     </row>
     <row r="45">
@@ -1699,22 +1699,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>-0.1462340522223224</v>
+        <v>-0.142294074859117</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>-0.005546837489109138</v>
+        <v>-0.01134702922979407</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>-0.1090167995032417</v>
+        <v>-0.1094928507664115</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.006089108946463809</v>
+        <v>0.006593792652473019</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>-0.1372820102454008</v>
+        <v>-0.1370554889856213</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>-0.01165298525853025</v>
+        <v>-0.01003045961019645</v>
       </c>
     </row>
     <row r="46">
@@ -1732,7 +1732,7 @@
         <v>10.14071581186827</v>
       </c>
       <c r="D46" s="5" t="n">
-        <v>-15.07876652936331</v>
+        <v>-15.0787665293633</v>
       </c>
       <c r="E46" s="5" t="n">
         <v>12.38443190656745</v>
@@ -1755,22 +1755,22 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>6.175303714935448</v>
+        <v>6.532515542557301</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-20.29437415468112</v>
+        <v>-19.87690933822121</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>9.280520106914707</v>
+        <v>9.613922891921487</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-13.99775350597501</v>
+        <v>-13.90321243437619</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>8.83994174902322</v>
+        <v>8.839022132425612</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>-15.67364642023046</v>
+        <v>-15.70824545784504</v>
       </c>
     </row>
     <row r="48">
@@ -1781,22 +1781,22 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>13.8171801687938</v>
+        <v>13.81035894296347</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>-10.47486989649292</v>
+        <v>-10.52554844212816</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>15.88007749370863</v>
+        <v>15.52975148503359</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>-5.847238477374693</v>
+        <v>-5.799933915003392</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>13.600084912066</v>
+        <v>13.90205397088508</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>-9.236349690273675</v>
+        <v>-9.139022043101559</v>
       </c>
     </row>
     <row r="49">
@@ -1810,7 +1810,7 @@
         <v>0.129102800313917</v>
       </c>
       <c r="D49" s="6" t="n">
-        <v>-0.1919697800762956</v>
+        <v>-0.1919697800762955</v>
       </c>
       <c r="E49" s="6" t="n">
         <v>0.1509863576433345</v>
@@ -1833,22 +1833,22 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>0.07621711263448824</v>
+        <v>0.08046373881707844</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.2508815963543565</v>
+        <v>-0.2483389935671147</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>0.1088740206623105</v>
+        <v>0.1143409660997613</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.1680888885194162</v>
+        <v>-0.1657603715997831</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.108160785720534</v>
+        <v>0.1081053924470814</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>-0.192214278443542</v>
+        <v>-0.1920114318221843</v>
       </c>
     </row>
     <row r="51">
@@ -1859,22 +1859,22 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.1807662384235233</v>
+        <v>0.1826010174373287</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>-0.136030241782397</v>
+        <v>-0.1377028665557105</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.2002996892535011</v>
+        <v>0.196800080161161</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>-0.0745133149932887</v>
+        <v>-0.07287454896825821</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.1736676335963677</v>
+        <v>0.1770696744201267</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>-0.1173670494248121</v>
+        <v>-0.1152273181729941</v>
       </c>
     </row>
     <row r="52">
@@ -1892,19 +1892,19 @@
         <v>-1.728485969611038</v>
       </c>
       <c r="D52" s="5" t="n">
-        <v>-2.631605768790901</v>
+        <v>-2.63160576879089</v>
       </c>
       <c r="E52" s="5" t="n">
         <v>0.1647614802413044</v>
       </c>
       <c r="F52" s="5" t="n">
-        <v>-1.191485305742879</v>
+        <v>-1.191485305742856</v>
       </c>
       <c r="G52" s="5" t="n">
         <v>-0.7515229401655943</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>-1.875251602659811</v>
+        <v>-1.8752516026598</v>
       </c>
     </row>
     <row r="53">
@@ -1915,22 +1915,22 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>-3.476233451497559</v>
+        <v>-3.598666025402908</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>-4.800609319300275</v>
+        <v>-4.861899595735705</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>-1.327391494378601</v>
+        <v>-1.265052420791446</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>-2.687137062566666</v>
+        <v>-2.805237923148503</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.845296155024996</v>
+        <v>-1.774558799129116</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>-3.179617776537832</v>
+        <v>-3.125646827606078</v>
       </c>
     </row>
     <row r="54">
@@ -1941,22 +1941,22 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>0.209865011778183</v>
+        <v>0.0172231810751182</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>-0.5055448620385021</v>
+        <v>-0.7031643389637844</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>1.587282950740529</v>
+        <v>1.503563196837161</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>0.3228252467707959</v>
+        <v>0.244983979138477</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>0.529417347020363</v>
+        <v>0.4261597288010363</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>-0.6967779763660407</v>
+        <v>-0.5603892691007653</v>
       </c>
     </row>
     <row r="55">
@@ -1970,19 +1970,19 @@
         <v>-0.02026233120619915</v>
       </c>
       <c r="D55" s="6" t="n">
-        <v>-0.03084923373915772</v>
+        <v>-0.03084923373915759</v>
       </c>
       <c r="E55" s="6" t="n">
         <v>0.001837511560765767</v>
       </c>
       <c r="F55" s="6" t="n">
-        <v>-0.01328810605839784</v>
+        <v>-0.01328810605839759</v>
       </c>
       <c r="G55" s="6" t="n">
         <v>-0.00858590756516784</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>-0.02142414563994849</v>
+        <v>-0.02142414563994836</v>
       </c>
     </row>
     <row r="56">
@@ -1993,22 +1993,22 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>-0.04029095511255516</v>
+        <v>-0.04153631734593195</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>-0.05591360364324922</v>
+        <v>-0.05620933363282254</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>-0.01464263881656591</v>
+        <v>-0.01404128478996918</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>-0.02977484714495229</v>
+        <v>-0.03095302336744859</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.02101136798530574</v>
+        <v>-0.02010559162158948</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>-0.03618797832801881</v>
+        <v>-0.03548499599756278</v>
       </c>
     </row>
     <row r="57">
@@ -2019,22 +2019,22 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.002519994439683888</v>
+        <v>0.0002032444944721628</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>-0.006169000662452444</v>
+        <v>-0.008246237115335455</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.01786641549451254</v>
+        <v>0.01687051680488248</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.003601631550741924</v>
+        <v>0.002924449978395079</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.006105569272652141</v>
+        <v>0.004964608361495196</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>-0.00810149770423052</v>
+        <v>-0.006482125100722515</v>
       </c>
     </row>
     <row r="58">
